--- a/medicine/Enfance/Daniel_Maja/Daniel_Maja.xlsx
+++ b/medicine/Enfance/Daniel_Maja/Daniel_Maja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Maja (né le 29 novembre 1942 à Paris) est un dessinateur de presse français, caricaturiste et illustrateur de livres de jeunesse.
 </t>
@@ -511,10 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Maja est diplômé de l'École Estienne à Paris, où il a étudié la gravure, la communication et l'édition de 1958 à 1964. Ses premières publications dans la presse datent de 1970, et de 1975 pour l'édition. Il a réalisé des affiches de films et de concert, des décors de dessin animé[réf. nécessaire] et de nombreuses couvertures de livres. Maja publie un dessin quotidien sur son blog Au jour le jour à partir de 2008, puis sur son blog La Vie Brève à partir de 2009.
-Illustration
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Daniel_Maja</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Maja</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Antiéconomique, de Jacques Attali et Marc Guillaume, PUF, 1975.
 Till l'espiègle, d'André Massepain, Bordas, Coll. « Contes gais de tous les temps », 1979.
 Ferdinand le Magnifique, de Ludwik Jerzy Kern, Bordas, 1979.
@@ -635,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Daniel_Maja</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Maja</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Expositions personnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1994 : Paris, péniche 6 x 8 (quai Malaquais), La vie brève.
 1995 : Paris, péniche 6 x 8 (quai Malaquais), L'abécédaire de l'ange.
@@ -692,7 +744,7 @@
 2008 :
 Bogota, Festival El Malpensante, juin 2008 (avec reportage de 16 pages et couverture des No 83 &amp; 87 de la Revue El Malpensante).
 Limoges, Galerie de Portraits imaginaires (20 illustrateurs - auteurs), de novembre 2008 à février 2009.
-Paris, atelier An. Girard, de décembre 2008 à février 2009 (avec catalogue-textes de M. Onfray, A. Hervé, J. L. Hue, J. Kotwica[Qui ?])[1].
+Paris, atelier An. Girard, de décembre 2008 à février 2009 (avec catalogue-textes de M. Onfray, A. Hervé, J. L. Hue, J. Kotwica[Qui ?]).
 2011 : Le Kremlin-Bicêtre, Espace culturel André Malraux, Maja La Vie brève, avril-mai 2011.
 2012 :
 Antony, Maison des arts, Humour et Satire, avec René Botti, du 4 avril au 26 mai 2012.
